--- a/medicine/Enfance/Isabelle_Arsenault/Isabelle_Arsenault.xlsx
+++ b/medicine/Enfance/Isabelle_Arsenault/Isabelle_Arsenault.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Isabelle Arsenault, née le 6 février 1978, est une illustratrice et autrice québécoise. Elle écrit et dessine plus particulièrement des illustrations de livres jeunesse.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Isabelle Arsenault a fait ses études à l’UQÀM en design graphique. Elle se démarque et se distingue en remportant un prix d’illustration dans la catégorie étudiante. Grâce à cette récompense, sa carrière en illustration éditoriale prend rapidement essor[1].
-Le prix Ragazzi de la Foire du livre de jeunesse de Bologne, dans la catégorie livre d'art, lui a été accordé en 2017 pour l'album Une berceuse en chiffon[2].
-En 2018[3] et 2020[4], elle est l'artiste sélectionnée pour représenter son pays, le Canada, pour le Prix Hans-Christian-Andersen, dans la catégorie Illustration, prix international danois.
-De 2021 à 2023, elle est sélectionnée trois années d'affilée pour le prestigieux prix suédois, le Prix commémoratif Astrid-Lindgren[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Isabelle Arsenault a fait ses études à l’UQÀM en design graphique. Elle se démarque et se distingue en remportant un prix d’illustration dans la catégorie étudiante. Grâce à cette récompense, sa carrière en illustration éditoriale prend rapidement essor.
+Le prix Ragazzi de la Foire du livre de jeunesse de Bologne, dans la catégorie livre d'art, lui a été accordé en 2017 pour l'album Une berceuse en chiffon.
+En 2018 et 2020, elle est l'artiste sélectionnée pour représenter son pays, le Canada, pour le Prix Hans-Christian-Andersen, dans la catégorie Illustration, prix international danois.
+De 2021 à 2023, elle est sélectionnée trois années d'affilée pour le prestigieux prix suédois, le Prix commémoratif Astrid-Lindgren.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Illustrations de livres jeunesse
 Marie-Danielle Croteau, Le Cœur de Monsieur Gauguin, Les 400 coups, 2004.
@@ -569,7 +585,7 @@
 Jane, le Renard et Moi (dessin), avec Fanny Britt (scénario), La Pastèque, 2013  (ISBN 978-2-923841-32-8).
 « Plumes et Bitume », dans La Pastèque, 15 ans d'édition, 2014.
 Louis parmi les spectres (dessin), avec Fanny Britt (scénario), La Pastèque, 2016  (ISBN 978-2-89777-000-6).
-L'Oiseau de Colette, La Pastèque, 2017[6]  (ISBN 978-2-89777-015-0).
+L'Oiseau de Colette, La Pastèque, 2017  (ISBN 978-2-89777-015-0).
 La Quête d'Albert, La Pastèque, 2019  (ISBN 978-2-89777-056-3).
 La Scène de Maya, La Pastèque, 2021  (ISBN 978-2-89777-101-0).
 Truffe (dessin), avec Fanny Britt (scénario), La Pastèque, 2022  (ISBN 978-2-89777-108-9).</t>
@@ -600,7 +616,9 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>2005 : Prix du Gouverneur général de la littérature jeunesse de langue française (illustration) avec Le Cœur de Monsieur Gauguin
 2012 :
@@ -608,22 +626,22 @@
 Prix Bédélys Québec pour Jane, le Renard et Moi (avec Fanny Britt)
 Prix Réal-Fillion pour Jane, le Renard et Moi (avec Fanny Britt)
 2013 :
-Prix du Gouverneur général de la littérature jeunesse de langue française (illustration) avec Jane, le Renard et Moi[7]
+Prix du Gouverneur général de la littérature jeunesse de langue française (illustration) avec Jane, le Renard et Moi
 Prix Joe Shuster de la meilleure dessinatrice pour Jane, le Renard et Moi
-Prix du livre jeunesse des bibliothèques de Montréal pour Jane, le Renard et Moi (avec Fanny Britt)[8]
-2014 : (international) « Honour List »[9] de l' IBBY pour ses illustrations de Virginia Woolf
+Prix du livre jeunesse des bibliothèques de Montréal pour Jane, le Renard et Moi (avec Fanny Britt)
+2014 : (international) « Honour List » de l' IBBY pour ses illustrations de Virginia Woolf
 2017 :
-Prix ACBD-Québec pour Louis parmi les spectres, avec Fanny Britt[10]
- Prix Braw on Art de la Foire du livre de jeunesse de Bologne[11] pour Une berceuse en chiffons : la vie tissée de Louise Bourgeois (avec Amy Novesky)
-Prix illustration jeunesse[12] pour ses illustrations de  Louis parmi les spectres
-2018 : Prix des libraires du Québec catégorie Jeunesse[13], pour L'Oiseau de Colette
-2018 et 2020 :  Sélection Canada du Prix Hans-Christian-Andersen, dans la catégorie Illustration[3],[4]
-2019 :  Prix Urhunden du meilleur album étranger pour Louis parmi les spectres (avec Fanny Britt)[14]
-2020 : Prix des écoles au Festival d'Angoulême 2020 pour La Quête d’Albert[15]
+Prix ACBD-Québec pour Louis parmi les spectres, avec Fanny Britt
+ Prix Braw on Art de la Foire du livre de jeunesse de Bologne pour Une berceuse en chiffons : la vie tissée de Louise Bourgeois (avec Amy Novesky)
+Prix illustration jeunesse pour ses illustrations de  Louis parmi les spectres
+2018 : Prix des libraires du Québec catégorie Jeunesse, pour L'Oiseau de Colette
+2018 et 2020 :  Sélection Canada du Prix Hans-Christian-Andersen, dans la catégorie Illustration,
+2019 :  Prix Urhunden du meilleur album étranger pour Louis parmi les spectres (avec Fanny Britt)
+2020 : Prix des écoles au Festival d'Angoulême 2020 pour La Quête d’Albert
 2022 :
-Prix des libraires du Québec catégorie Québec - BD Jeunesse[16] pour Truffe, avec Fanny Britt
-Finaliste Prix BD du Salon du livre de Trois-Rivières[17], catégorie BD Jeunesse, pour Truffe, avec Fanny Britt
-2021 à 2023 :  Sélection pour le Prix commémoratif Astrid-Lindgren[5] trois années d'affilée</t>
+Prix des libraires du Québec catégorie Québec - BD Jeunesse pour Truffe, avec Fanny Britt
+Finaliste Prix BD du Salon du livre de Trois-Rivières, catégorie BD Jeunesse, pour Truffe, avec Fanny Britt
+2021 à 2023 :  Sélection pour le Prix commémoratif Astrid-Lindgren trois années d'affilée</t>
         </is>
       </c>
     </row>
